--- a/data_model.xlsx
+++ b/data_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hw18a001/boitter_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78B06BD9-932F-2E48-A18E-EED020AA1C7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDCF08-06A8-8646-A838-7E67253C56D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="0" windowWidth="19240" windowHeight="21000" xr2:uid="{D5CD1B96-9A2D-A444-840B-12C8836D343A}"/>
+    <workbookView xWindow="14360" yWindow="460" windowWidth="19240" windowHeight="19200" xr2:uid="{D5CD1B96-9A2D-A444-840B-12C8836D343A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -43,10 +39,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -60,6 +52,14 @@
   </si>
   <si>
     <t>update_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tweet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -192,6 +192,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,12 +208,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,66 +527,66 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="E6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6"/>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
